--- a/results/I3_N5_M2_T30_C100_DepLowerLeft_s4_P1_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepLowerLeft_s4_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1860.848474609734</v>
+        <v>2089.625192807318</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007000207901000977</v>
+        <v>0.001999855041503906</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.95601360621536</v>
+        <v>21.54549771016641</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.88206838430164</v>
+        <v>13.72575171901394</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.03452938780785</v>
+        <v>7.805446816166261</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1257.390000000013</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>575.35</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,45 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -711,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -722,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -733,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -755,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -777,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -824,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -857,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -868,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -879,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -940,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>25.33845519167733</v>
       </c>
     </row>
     <row r="4">
@@ -948,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>17.91485850069196</v>
+        <v>17.89020001293848</v>
       </c>
     </row>
     <row r="5">
@@ -956,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>21.07354493653836</v>
+        <v>21.04888644878487</v>
       </c>
     </row>
     <row r="6">
@@ -964,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>15.50084538957422</v>
       </c>
     </row>
     <row r="7">
@@ -972,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.869427042789599</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -980,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.1305729572104</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -1002,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1037,10 +1004,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1051,10 +1018,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1065,10 +1032,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1076,13 +1043,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1090,13 +1057,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1110,7 +1077,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1124,7 +1091,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1138,7 +1105,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1146,13 +1113,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1160,13 +1127,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -1177,10 +1144,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -1191,10 +1158,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -1205,12 +1172,110 @@
         <v>3</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1313,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>145.8849999999998</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8">
@@ -1324,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>142.7549999999998</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9">
@@ -1335,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>139.8549999999998</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10">
@@ -1346,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>141.8899999999998</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11">
@@ -1357,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>129.7049999999998</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12">
@@ -1368,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>123.1400000000007</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13">
@@ -1379,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>124.7250000000007</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14">
@@ -1390,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>135.9750000000007</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
@@ -1401,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>137.5650000000007</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16">
@@ -1412,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>125.9600000000007</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17">
@@ -1423,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>179.1350000000014</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18">
@@ -1434,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>183.1250000000015</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19">
@@ -1445,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>192.9800000000014</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20">
@@ -1456,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>191.4250000000014</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21">
@@ -1467,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>181.9400000000015</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22">
@@ -1478,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>46.63000000000007</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23">
@@ -1489,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>48.8</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
@@ -1500,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>46.7</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25">
@@ -1511,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>51</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
@@ -1522,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>47.43000000000007</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27">
@@ -1533,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>41.93999999999971</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1544,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>42.87999999999971</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -1555,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>41.35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
@@ -1566,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>44.15999999999971</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
@@ -1577,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1588,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>145.8849999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1599,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>142.7549999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1610,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>139.8549999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1621,7 +1686,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>141.8899999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1632,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>129.7049999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1643,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>179.1350000000014</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38">
@@ -1654,7 +1719,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>183.1250000000015</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39">
@@ -1665,7 +1730,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>192.9800000000014</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40">
@@ -1676,7 +1741,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>191.4250000000014</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41">
@@ -1687,7 +1752,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>181.9400000000015</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -1734,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>45.88499999999979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1745,7 +1810,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>42.75499999999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1756,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>39.85499999999979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1767,7 +1832,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>41.88999999999979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1778,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>29.70499999999979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1789,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>79.13500000000144</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8">
@@ -1800,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>83.12500000000148</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9">
@@ -1811,7 +1876,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>92.98000000000144</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10">
@@ -1822,7 +1887,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>91.42500000000143</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11">
@@ -1833,7 +1898,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>81.94000000000148</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -1880,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1891,7 +1956,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1902,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1913,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6.775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1924,7 +1989,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1935,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1946,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>7.045</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1957,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1968,7 +2033,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>6.91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1979,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>6.74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -2045,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>15.845</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -2056,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>21.515</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -2067,7 +2132,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>15.96</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2143,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>22.21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -2089,7 +2154,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>26.635</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2100,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>20.545</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2111,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>24.885</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2122,7 +2187,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>29.155</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2133,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>24.9</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2144,7 +2209,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.45</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2158,7 +2223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2348,6 +2413,61 @@
         <v>1</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>4</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
